--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>394481.8076510654</v>
+        <v>375532.3614143287</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914735</v>
+        <v>2629876.587221764</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136535</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4922990.595713633</v>
+        <v>4903361.299681759</v>
       </c>
     </row>
     <row r="11">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="F3" t="n">
-        <v>38.87161743162455</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S5" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>34.11888750173132</v>
       </c>
     </row>
     <row r="7">
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S7" t="n">
-        <v>42.20118209180435</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W8" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V9" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="X9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,31 +1291,31 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G10" t="n">
-        <v>0.790450447682262</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S11" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>38.87161743162455</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1537,22 +1537,22 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H13" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1649,25 +1649,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="D15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>28.88091821707974</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="S17" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="T17" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="U17" t="n">
-        <v>26.92232807701202</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,43 +2020,43 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>44.13217237922859</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,70 +2081,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>89.20720739599011</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="I23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>84.0572199420196</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2558,64 +2558,64 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,31 +2631,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.96091935415784</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>118.3250243298447</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>104.954515658907</v>
       </c>
       <c r="T30" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>222.3396163656985</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>68.29221919223492</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,10 +3171,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3278,49 +3278,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>174.7963718054644</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>130.1562265640802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,70 +3500,70 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>4.586460976949843</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3639,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3670,52 +3670,52 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>212.2853856434421</v>
+        <v>208.2792470398066</v>
       </c>
       <c r="D41" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,16 +3828,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>101.0876427095392</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>118.5628686044507</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4019,31 +4019,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,16 +4059,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4150,16 +4150,16 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.17851493563234</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
-        <v>60.17851493563234</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>60.17851493563234</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>60.17851493563234</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>60.17851493563234</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>60.17851493563234</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>60.17851493563234</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>15.60056303742164</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>45.45613755060546</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45613755060546</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M2" t="n">
-        <v>89.14698820604177</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>121.8591222504766</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>77.28117035226589</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T2" t="n">
-        <v>60.17851493563234</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U2" t="n">
-        <v>60.17851493563234</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V2" t="n">
-        <v>60.17851493563234</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W2" t="n">
-        <v>60.17851493563234</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X2" t="n">
-        <v>60.17851493563234</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y2" t="n">
-        <v>60.17851493563234</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F3" t="n">
-        <v>137.2644294849704</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G3" t="n">
-        <v>92.68647758675968</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>48.10852568854899</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L3" t="n">
-        <v>90.91227510121089</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M3" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.73598234693722</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>46.15803044872652</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>3.530573790338288</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M5" t="n">
-        <v>45.45613755060546</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S5" t="n">
-        <v>77.28117035226589</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T5" t="n">
-        <v>32.70321845405519</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="U5" t="n">
-        <v>3.530573790338288</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="V5" t="n">
-        <v>3.530573790338288</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="W5" t="n">
-        <v>3.530573790338288</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="X5" t="n">
-        <v>3.530573790338288</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.530573790338288</v>
+        <v>68.2764642733967</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
-        <v>90.91227510121089</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>132.8378388614781</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N6" t="n">
-        <v>132.8378388614781</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>137.2644294849704</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>137.2644294849704</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>92.68647758675968</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>92.68647758675968</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V6" t="n">
-        <v>92.68647758675968</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W6" t="n">
-        <v>92.68647758675968</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X6" t="n">
-        <v>92.68647758675968</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.10852568854899</v>
+        <v>123.8719851183408</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>13.245045875396</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.37278572049297</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C8" t="n">
-        <v>42.79483382228227</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D8" t="n">
-        <v>42.79483382228227</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>89.14698820604177</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W8" t="n">
-        <v>131.9507376187037</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X8" t="n">
-        <v>131.9507376187037</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y8" t="n">
-        <v>131.9507376187037</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.79483382228227</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C9" t="n">
-        <v>42.79483382228227</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>42.79483382228227</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>42.79483382228227</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>42.79483382228227</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>42.79483382228227</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M9" t="n">
-        <v>3.530573790338288</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N9" t="n">
-        <v>45.45613755060546</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>131.9507376187037</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U9" t="n">
-        <v>131.9507376187037</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V9" t="n">
-        <v>87.37278572049297</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W9" t="n">
-        <v>87.37278572049297</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X9" t="n">
-        <v>42.79483382228227</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y9" t="n">
-        <v>42.79483382228227</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C10" t="n">
-        <v>93.48491238239833</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D10" t="n">
-        <v>48.90696048418764</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E10" t="n">
-        <v>48.90696048418764</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F10" t="n">
-        <v>48.90696048418764</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="G10" t="n">
-        <v>48.10852568854899</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H10" t="n">
-        <v>48.10852568854899</v>
+        <v>13.245045875396</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>13.245045875396</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M11" t="n">
-        <v>47.22142444577459</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S11" t="n">
-        <v>131.9507376187037</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T11" t="n">
-        <v>87.37278572049297</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U11" t="n">
-        <v>42.79483382228227</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V11" t="n">
-        <v>3.530573790338288</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W11" t="n">
-        <v>3.530573790338288</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X11" t="n">
-        <v>3.530573790338288</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.530573790338288</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L12" t="n">
-        <v>90.91227510121089</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>134.6031257566472</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N12" t="n">
-        <v>176.5286895169144</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O12" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>137.2644294849704</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T12" t="n">
-        <v>92.68647758675968</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U12" t="n">
-        <v>48.10852568854899</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V12" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W12" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F13" t="n">
-        <v>92.68647758675968</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G13" t="n">
-        <v>48.10852568854899</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y13" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>90.91227510121089</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
-        <v>134.6031257566472</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N14" t="n">
-        <v>176.5286895169144</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S14" t="n">
-        <v>131.9507376187037</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T14" t="n">
-        <v>87.37278572049297</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U14" t="n">
-        <v>42.79483382228227</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V14" t="n">
-        <v>42.79483382228227</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W14" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X14" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5286895169144</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D15" t="n">
-        <v>137.2644294849704</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E15" t="n">
-        <v>92.68647758675968</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F15" t="n">
-        <v>48.10852568854899</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M15" t="n">
-        <v>90.91227510121089</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N15" t="n">
-        <v>134.6031257566472</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.48491238239833</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R16" t="n">
-        <v>48.90696048418764</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S16" t="n">
-        <v>4.329008585976936</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.60056303742164</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C17" t="n">
-        <v>15.60056303742164</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D17" t="n">
-        <v>15.60056303742164</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E17" t="n">
-        <v>15.60056303742164</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F17" t="n">
-        <v>15.60056303742164</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G17" t="n">
-        <v>15.60056303742164</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H17" t="n">
-        <v>15.60056303742164</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
         <v>3.530573790338288</v>
@@ -5534,31 +5534,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>131.9507376187037</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S17" t="n">
-        <v>87.37278572049297</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T17" t="n">
-        <v>42.79483382228227</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U17" t="n">
-        <v>15.60056303742164</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V17" t="n">
-        <v>15.60056303742164</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W17" t="n">
-        <v>15.60056303742164</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X17" t="n">
-        <v>15.60056303742164</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.60056303742164</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5598,16 @@
         <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P18" t="n">
         <v>176.5286895169144</v>
@@ -5616,22 +5616,22 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U18" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X18" t="n">
         <v>3.530573790338288</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
         <v>3.530573790338288</v>
@@ -5698,25 +5698,25 @@
         <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T19" t="n">
         <v>93.48491238239833</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V19" t="n">
-        <v>48.90696048418764</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W19" t="n">
-        <v>48.90696048418764</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>710.516763498309</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5838,7 +5838,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5862,19 +5862,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>873.9488652116563</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.84447166430675</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="22">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6078,40 +6078,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>705.7335281915883</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
         <v>829.5248650203655</v>
@@ -6163,34 +6163,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>874.2758585542716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E26" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>328.2071404297052</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C27" t="n">
-        <v>328.2071404297052</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D27" t="n">
-        <v>179.2727307684539</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>588.4532163200711</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>588.4532163200711</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X27" t="n">
-        <v>588.4532163200711</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y27" t="n">
-        <v>380.6929175551172</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="28">
@@ -6409,13 +6409,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="X29" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>858.042493228912</v>
       </c>
       <c r="T30" t="n">
-        <v>933.9571464551993</v>
+        <v>858.042493228912</v>
       </c>
       <c r="U30" t="n">
-        <v>705.7335281915883</v>
+        <v>629.8188749653011</v>
       </c>
       <c r="V30" t="n">
-        <v>470.5814199598456</v>
+        <v>629.8188749653011</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J31" t="n">
         <v>829.5248650203655</v>
@@ -6658,13 +6658,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E32" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
         <v>20.03527576299844</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>895.0751159225201</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>666.8514976589092</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>431.6993894271665</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="X33" t="n">
-        <v>277.6047704292607</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y33" t="n">
-        <v>69.84447166430675</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="34">
@@ -6886,7 +6886,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7023,43 +7023,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>562.4161926976942</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>318.9674160535941</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="X36" t="n">
-        <v>318.9674160535941</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="Y36" t="n">
-        <v>187.4964801302808</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="37">
@@ -7114,22 +7114,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7287,16 +7287,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.84447166430675</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>496.626357174339</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>104.1029673515831</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>284.1788189362417</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>501.1544461991459</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>707.0089684063852</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>856.2039185490332</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>945.8639738410842</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>463.4255996391059</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>463.4255996391059</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>463.4255996391059</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>463.4255996391059</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>361.3168696294704</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>222.5860442120859</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>109.2169086196652</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>60.91649565072828</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>295.0178291763966</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>529.119162702065</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>763.2204962277333</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>844.6944443939699</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>671.2770998446388</v>
       </c>
       <c r="T42" t="n">
-        <v>689.4702815141908</v>
+        <v>671.2770998446388</v>
       </c>
       <c r="U42" t="n">
-        <v>689.4702815141908</v>
+        <v>671.2770998446388</v>
       </c>
       <c r="V42" t="n">
-        <v>689.4702815141908</v>
+        <v>671.2770998446388</v>
       </c>
       <c r="W42" t="n">
-        <v>689.4702815141908</v>
+        <v>671.2770998446388</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>463.4255996391059</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>463.4255996391059</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>838.6458083585264</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>877.8338465507486</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>921.5246972061849</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.70321845405519</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>47.22142444577459</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>90.91227510121089</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M44" t="n">
-        <v>90.91227510121089</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N44" t="n">
-        <v>90.91227510121089</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O44" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P44" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.4370741486873</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>121.8591222504766</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S44" t="n">
-        <v>121.8591222504766</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T44" t="n">
-        <v>121.8591222504766</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U44" t="n">
-        <v>121.8591222504766</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V44" t="n">
-        <v>121.8591222504766</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W44" t="n">
-        <v>121.8591222504766</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X44" t="n">
-        <v>121.8591222504766</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y44" t="n">
-        <v>77.28117035226589</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>137.2644294849704</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C45" t="n">
-        <v>137.2644294849704</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D45" t="n">
-        <v>92.68647758675968</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E45" t="n">
-        <v>48.10852568854899</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F45" t="n">
-        <v>3.530573790338288</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N45" t="n">
-        <v>45.45613755060546</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O45" t="n">
-        <v>89.14698820604177</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P45" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S45" t="n">
-        <v>137.2644294849704</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
-        <v>137.2644294849704</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
-        <v>137.2644294849704</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V45" t="n">
-        <v>137.2644294849704</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W45" t="n">
-        <v>137.2644294849704</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X45" t="n">
-        <v>137.2644294849704</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y45" t="n">
-        <v>137.2644294849704</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C46" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D46" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E46" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F46" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>153.6467390108255</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>109.0687871126148</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>64.49083521440409</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>69.3105240343566</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>108.4985622265788</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>152.1894128820151</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W46" t="n">
-        <v>176.5286895169144</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X46" t="n">
-        <v>176.5286895169144</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y46" t="n">
-        <v>176.5286895169144</v>
+        <v>13.245045875396</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>262.4389053482807</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8076,7 +8076,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8383,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>278.1154692732874</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8538,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8620,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N12" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8857,7 +8857,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>271.7621178998911</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,22 +9009,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>184.9452987477446</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9094,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9246,19 +9246,19 @@
         <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>180.9034340831744</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9726,16 +9726,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9966,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>306.1360004134264</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9778304605879</v>
       </c>
       <c r="M42" t="n">
-        <v>233.2169876979182</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>367.8077055436044</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>279.8985873492159</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>272.4472657249869</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>275.3651681344982</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11385,16 +11385,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>173.6907663866335</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O45" t="n">
-        <v>186.728416823673</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>178.1065797935588</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
-        <v>184.1139464652501</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11464,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22565,10 +22565,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>206.1642207016641</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="3">
@@ -22632,19 +22632,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>122.7796016274118</v>
       </c>
       <c r="F3" t="n">
-        <v>106.1975949617593</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22683,7 +22683,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22714,16 +22714,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>135.443495661667</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22744,16 +22744,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22784,7 +22784,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,7 +22793,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>382.001266128267</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8878972070167</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T5" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>222.4647346907568</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22875,16 +22875,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>171.5638082755731</v>
       </c>
     </row>
     <row r="7">
@@ -22981,19 +22981,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S7" t="n">
-        <v>181.8154159451679</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>217.9680370670172</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>343.0587526406372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23075,16 +23075,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W8" t="n">
-        <v>305.1087963381844</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23115,7 +23115,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23148,22 +23148,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V9" t="n">
-        <v>188.6684147701967</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>216.8295043329304</v>
       </c>
       <c r="X9" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23179,31 +23179,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2005289107765</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>347.0648912442726</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23303,19 +23303,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8878972070167</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>288.8806410385104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23346,7 +23346,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23385,16 +23385,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>132.8115536722133</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V12" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23425,22 +23425,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>123.8588069792302</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H13" t="n">
-        <v>118.095000128211</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.37159280401211</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23507,10 +23507,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,25 +23537,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>198.221069950687</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>310.3693512857885</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,19 +23574,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>137.8430201603266</v>
       </c>
       <c r="D15" t="n">
-        <v>108.5734481330142</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>100.9370400141553</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>154.9710608812818</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.1551389805992</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23747,13 +23747,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>194.2149313470516</v>
       </c>
       <c r="U17" t="n">
-        <v>224.4233248308245</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23856,25 +23856,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V18" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>166.9013677718529</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>144.630597575249</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23908,7 +23908,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23938,13 +23938,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
         <v>208.0054709445994</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>224.9192049413549</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,13 +23969,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,7 +24023,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,7 +24054,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>107.5873851868479</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24102,7 +24102,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,10 +24221,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>120.497718190637</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>141.8841621389552</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24446,25 +24446,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>127.189416472325</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,13 +24497,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,31 +24519,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>114.5722642957095</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>29.1200412347941</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,19 +24567,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24683,13 +24683,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24725,10 +24725,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24765,7 +24765,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24807,16 +24807,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>66.72865544493085</v>
       </c>
       <c r="T30" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24856,10 +24856,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>22.26949182588285</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,19 +24926,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,22 +24965,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>29.00603654213799</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>123.3973950460205</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25047,10 +25047,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>131.8725095025867</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25059,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25126,10 +25126,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25217,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>299.3870928771938</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25248,10 +25248,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,16 +25290,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>76.89861135545524</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>75.52646921322412</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25354,10 +25354,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,7 +25400,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,25 +25433,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W38" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>117.2220797075721</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,22 +25476,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>153.0586194784511</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25527,13 +25527,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9875061275654</v>
+        <v>156.9936447312009</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>118.2170481604119</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>145.4643766119907</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>178.836744054864</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,16 +25716,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>43.98156968384468</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25770,10 +25770,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>87.21011659902676</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>336.3919735539278</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25907,31 +25907,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25947,16 +25947,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>169.854427820673</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26038,16 +26038,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358720.1596706798</v>
+        <v>355323.8049462884</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358720.1596706799</v>
+        <v>355323.8049462886</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358720.1596706798</v>
+        <v>355323.8049462884</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358720.1596706798</v>
+        <v>355323.8049462884</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358720.1596706798</v>
+        <v>355323.8049462886</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358720.1596706797</v>
+        <v>358720.1596706798</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498779.7423193567</v>
+        <v>498779.7423193565</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498779.7423193565</v>
+        <v>498779.7423193567</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498779.7423193567</v>
+        <v>498779.7423193565</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498779.7423193567</v>
+        <v>498779.7423193565</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498779.7423193565</v>
+        <v>498779.7423193567</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498779.7423193567</v>
+        <v>495544.1393643906</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>358720.1596706799</v>
+        <v>355323.8049462884</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>88817.09956719898</v>
+      </c>
+      <c r="C2" t="n">
+        <v>88817.09956719898</v>
+      </c>
+      <c r="D2" t="n">
+        <v>88817.09956719902</v>
+      </c>
+      <c r="E2" t="n">
+        <v>88817.09956719901</v>
+      </c>
+      <c r="F2" t="n">
+        <v>88817.09956719902</v>
+      </c>
+      <c r="G2" t="n">
         <v>89664.75401339904</v>
-      </c>
-      <c r="C2" t="n">
-        <v>89664.75401339904</v>
-      </c>
-      <c r="D2" t="n">
-        <v>89664.75401339903</v>
-      </c>
-      <c r="E2" t="n">
-        <v>89664.75401339901</v>
-      </c>
-      <c r="F2" t="n">
-        <v>89664.75401339904</v>
-      </c>
-      <c r="G2" t="n">
-        <v>89664.75401339903</v>
       </c>
       <c r="H2" t="n">
         <v>124620.5043984993</v>
@@ -26350,10 +26350,10 @@
         <v>124620.5043984993</v>
       </c>
       <c r="O2" t="n">
-        <v>124620.5043984993</v>
+        <v>123812.9700113465</v>
       </c>
       <c r="P2" t="n">
-        <v>89664.75401339907</v>
+        <v>88817.09956719902</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
         <v>53120.56697032503</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28020.81197764722</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="C4" t="n">
-        <v>28020.81197764722</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="D4" t="n">
-        <v>28020.81197764722</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="E4" t="n">
-        <v>28020.81197764722</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="F4" t="n">
-        <v>28020.81197764722</v>
+        <v>29694.5175950296</v>
       </c>
       <c r="G4" t="n">
-        <v>28020.81197764722</v>
+        <v>29986.26547774717</v>
       </c>
       <c r="H4" t="n">
-        <v>39271.77947293871</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>39271.77947293872</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>39271.77947293872</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>39271.77947293872</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="L4" t="n">
-        <v>39271.77947293872</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>39271.77947293871</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="N4" t="n">
-        <v>39271.77947293871</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>39271.77947293872</v>
+        <v>41739.48609806577</v>
       </c>
       <c r="P4" t="n">
-        <v>28020.81197764722</v>
+        <v>29694.5175950296</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
         <v>2683.236080657098</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>2683.236080657098</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10543.3999508505</v>
+        <v>9822.814653806563</v>
       </c>
       <c r="C6" t="n">
-        <v>25333.10595509472</v>
+        <v>23088.28225288948</v>
       </c>
       <c r="D6" t="n">
-        <v>25333.1059550947</v>
+        <v>23088.28225288952</v>
       </c>
       <c r="E6" t="n">
-        <v>58960.70595509469</v>
+        <v>56715.8822528895</v>
       </c>
       <c r="F6" t="n">
-        <v>58960.70595509472</v>
+        <v>56715.88225288951</v>
       </c>
       <c r="G6" t="n">
-        <v>58960.7059550947</v>
+        <v>55748.63290551998</v>
       </c>
       <c r="H6" t="n">
-        <v>17574.48919147387</v>
+        <v>14828.84330851646</v>
       </c>
       <c r="I6" t="n">
-        <v>70695.05616179886</v>
+        <v>67949.41027884146</v>
       </c>
       <c r="J6" t="n">
-        <v>59148.13805180803</v>
+        <v>57592.52637503765</v>
       </c>
       <c r="K6" t="n">
-        <v>70695.05616179892</v>
+        <v>67949.41027884145</v>
       </c>
       <c r="L6" t="n">
-        <v>70695.05616179892</v>
+        <v>67949.41027884149</v>
       </c>
       <c r="M6" t="n">
-        <v>70695.05616179889</v>
+        <v>67949.41027884147</v>
       </c>
       <c r="N6" t="n">
-        <v>70695.05616179892</v>
+        <v>67949.41027884147</v>
       </c>
       <c r="O6" t="n">
-        <v>70695.05616179892</v>
+        <v>67696.35151089622</v>
       </c>
       <c r="P6" t="n">
-        <v>58960.70595509475</v>
+        <v>56715.88225288951</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
         <v>44.13217237922859</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
         <v>196.8821164984305</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
         <v>196.8821164984305</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330019</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34866,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330018</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35103,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330018</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35340,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330018</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N12" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>42.34905430330016</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35966,19 +35966,19 @@
         <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36446,16 +36446,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36686,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O30" t="n">
-        <v>217.7067518141195</v>
-      </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,10 +37315,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>86.04614936844587</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>42.42345068071374</v>
       </c>
       <c r="M42" t="n">
-        <v>91.0829537758999</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>42.34905430330019</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38105,16 +38105,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>42.34905430330018</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O45" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
